--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -4,16 +4,348 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Munka1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Általános" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Elérhetőség" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Nyitvatartás" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="DRÓNKÉPZÉS" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="DRÓN SZERVIZ" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="DRÓN BÉRLÉS" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="MI ASSZISZETS TELEPÍTÉSE" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="GYERKEK INFORMATIKAI ROBOTIKAI " state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Munka9" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+  <si>
+    <t>Megszólítás:</t>
+  </si>
+  <si>
+    <t>A megszólításnál és a levél írásánál magázó hangnemben írjál és légy nagyon udvarias.</t>
+  </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>A levélben keresd meg lehetőség szerint, hogy mi a levélíró keresztneve és annak megfelelően próbáld megszólítani.</t>
+  </si>
+  <si>
+    <t>Levél végén:</t>
+  </si>
+  <si>
+    <t>A végén üdvözlésnél írd azt hogy, "Üdvözlettel Charter cégcsoport AI asszisztense!". És mond el hogy milyen hatékonnyá teszi az irodai munkát egy ilyen asszisztens bevezetése.</t>
+  </si>
+  <si>
+    <t>A legvégére pedig az Elérhetőség munkalap tartalmát másold be és lehetőleg a térkép linket próbáld úgy beemelni, hogy a szöveg "TÉRKÉP" legen ésha ráklikkelenek akkor a link induljon el</t>
+  </si>
+  <si>
+    <t>Ha nem tudsz válaszolni a kérdésre, írd meg, hogy nyugodtan keressenek minek az elérhetőségeinken.</t>
+  </si>
+  <si>
+    <t>Úgy fejezd be a levelet, hogy amennyiben nem volt kielégítő a válasz legyen szíves írja meg a konkrét kérdését és megpróbálunk válaszolni.</t>
+  </si>
+  <si>
+    <t>Telefonszám 70/593-9167</t>
+  </si>
+  <si>
+    <t>mailcímünk:iroda@charter.hu</t>
+  </si>
+  <si>
+    <t>Cím:7632 Pécs Kertváros u. 2.</t>
+  </si>
+  <si>
+    <t>Térkép link:</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/qToqy4XmTB6dSt6d6</t>
+  </si>
+  <si>
+    <t>Az alábbi nyitvatartási idők az összes szolgáltatásra igazak vagyis az iroda nyitvatartására vonatkozik amikor egy kollégánk az irodában biztos megtalálható</t>
+  </si>
+  <si>
+    <t>Ha valaki nem kérdez rá a levélben hogy hétvégén nyitva tartunk-e akkor feltételezhetjük hogy a hétköznapokra gondol.</t>
+  </si>
+  <si>
+    <t>Hétvégén nincs nyitva tartás</t>
+  </si>
+  <si>
+    <t>Napok</t>
+  </si>
+  <si>
+    <t>tól</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>Hétfő</t>
+  </si>
+  <si>
+    <t>8:00 óra</t>
+  </si>
+  <si>
+    <t>16:00 óra</t>
+  </si>
+  <si>
+    <t>Kedd</t>
+  </si>
+  <si>
+    <t>Szerda</t>
+  </si>
+  <si>
+    <t>Csütörtök</t>
+  </si>
+  <si>
+    <t>Péntek</t>
+  </si>
+  <si>
+    <t>Szombat</t>
+  </si>
+  <si>
+    <t>Zárva</t>
+  </si>
+  <si>
+    <t>Vasárnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">előfordul  hogy 7:15 után már nyitva vagyunk, de akkor érdemes telefonálni </t>
+  </si>
+  <si>
+    <t>Drónkezelői Alapképzés</t>
+  </si>
+  <si>
+    <t>A drónképzés alapvetően olyan személyeknek szól akik még nem repültek drónnal, nincs gyakorlati tapasztalatuk. Esetleg vásárlás előtt állnak, nem tudják milyen eszközt vásároljanak a céljaikhoz. Nincsenek tisztában olyan hasznos gyakorlati  tudással amivel biztonságosan használhatják a drónjukat.</t>
+  </si>
+  <si>
+    <t>A tanfolyam kezdő pilótáknak az elmélet és gyakorlat megszerzésére koncentrál. Az elméleti részben a magyarországi szabályok, drón törvények, különböző drónok típusának ismertetése történik, a gyakorlati alkalmak során pedig többféle drónnal, többféle repülési feladat segítségével sajátítható el a biztonságos drón kezelés.</t>
+  </si>
+  <si>
+    <t>A képzés időtartama 10 óra, ami 4 alkalmat jelent.</t>
+  </si>
+  <si>
+    <t>Jelentkezés</t>
+  </si>
+  <si>
+    <t>A képzés ára: 50.000 Ft</t>
+  </si>
+  <si>
+    <t>Az ár tartalmazza az A1/A3 drónpilóta jogosítvány megszerzését is.</t>
+  </si>
+  <si>
+    <t>Milyen fajta drónok javítását vállaljuk?</t>
+  </si>
+  <si>
+    <t>Elsősorban DJI drónokat javítunk, de egyéb márkákkal is foglalkozunk.</t>
+  </si>
+  <si>
+    <t>El tudom postázni a drónomat?</t>
+  </si>
+  <si>
+    <t>Természetesen, futártól vagy csomagautomatából is át tudjuk venni a drónt szervizelésre. A csomagfeladásról az alábbiakban tájékozódhat.</t>
+  </si>
+  <si>
+    <t>Milyen fajta problémákkal foglalkozunk?</t>
+  </si>
+  <si>
+    <t>Szereléseink során legtöbbször törött, lezuhant drónokkal találkozunk, de előfordulnak karbantartások, felújítások is.</t>
+  </si>
+  <si>
+    <t>Hogyan adhatom le a drónomat szervizelésre?</t>
+  </si>
+  <si>
+    <t>Drónodat nyugodtan behozhatod szervizünkbe, telefonon szívesen tájékoztatunk az esetleges kérdésekről.</t>
+  </si>
+  <si>
+    <t>Mennyi idő alatt készül el a drónom?</t>
+  </si>
+  <si>
+    <t>A szervizelési idő a hibától függ. Amennyiben egy ragasztásról, vagy alkatrészcseréről van szó (raktárról), akkor igyekszünk az adott héten megjavítani.</t>
+  </si>
+  <si>
+    <t>Alkatrész rendelés esetén ez több hét is lehet.</t>
+  </si>
+  <si>
+    <t>Általában mennyibe fog kerülni a javítás?</t>
+  </si>
+  <si>
+    <t>Általában egy normál 1-2 órás szervizelés 25.000-35.000 Ft-ba kerül plusz az alkatrész ára.</t>
+  </si>
+  <si>
+    <t>Van-e bevizsgálási díj?</t>
+  </si>
+  <si>
+    <t>Bevizsgálásunk díjunk: 5000,- viszont amennyiben kérik a javítást akkor nem számítjuk fel.</t>
+  </si>
+  <si>
+    <t>A drón postázását milyen módon lehet megvalósítani?</t>
+  </si>
+  <si>
+    <t>Könnyedén elküldheti drónját szervízünkbe Foxpost segítségével.</t>
+  </si>
+  <si>
+    <t>FOXPOST csomagküldés az ország bármely pontjáról.</t>
+  </si>
+  <si>
+    <t>Címzési Adatok:</t>
+  </si>
+  <si>
+    <t>Címzett neve: Charter Informatika</t>
+  </si>
+  <si>
+    <t>Címzett email: informatika@charter.hu</t>
+  </si>
+  <si>
+    <t>Címzett telefonszáma: +36309971010</t>
+  </si>
+  <si>
+    <t>Átvételi pont: Pécs ALDI Árnyas út</t>
+  </si>
+  <si>
+    <t>3 féle drónból tud választani. Mindegyiknél 50.000 Ft a kaució</t>
+  </si>
+  <si>
+    <t>DJI Mini 4 Pro Ár/nap: 10 000 Ft</t>
+  </si>
+  <si>
+    <t>DJI Mavic Mini  Ár/nap: 5 000 Ft</t>
+  </si>
+  <si>
+    <t>DJI Mavic 2 Pro Ár/nap: 8 000 Ft</t>
+  </si>
+  <si>
+    <t>Mit tartalmaz a bérlés?</t>
+  </si>
+  <si>
+    <t>Minden drónunkat teljesen felszerelve és üzemkészen adjuk át:</t>
+  </si>
+  <si>
+    <t>Feltöltött akkumulátor(ok)</t>
+  </si>
+  <si>
+    <t>Távirányító</t>
+  </si>
+  <si>
+    <t>Táska és hordozó tok</t>
+  </si>
+  <si>
+    <t>Kábelek, töltő</t>
+  </si>
+  <si>
+    <t>Memóriakártya</t>
+  </si>
+  <si>
+    <t>Igény szerint: extra akkumulátor vagy kiegészítő</t>
+  </si>
+  <si>
+    <t>Mit kell tenned a bérléshez?</t>
+  </si>
+  <si>
+    <t>Töltsd ki az átadás-átvételi jegyzőkönyvet személyesen nálunk.</t>
+  </si>
+  <si>
+    <t>Hozd el az alábbiakat:</t>
+  </si>
+  <si>
+    <t>Érvényes személyi igazolvány</t>
+  </si>
+  <si>
+    <t>Lakcímkártya</t>
+  </si>
+  <si>
+    <t>Érvényes, legalább A1/A3 drón jogosítvány (Mavic Mini-hez nem kötelező!)</t>
+  </si>
+  <si>
+    <t>Email címed és telefonszámod</t>
+  </si>
+  <si>
+    <t>Bérleti díj</t>
+  </si>
+  <si>
+    <t>Kaució (letét), ami visszajár, amennyiben a drón épségben kerül vissza</t>
+  </si>
+  <si>
+    <t>Mire figyelj a bérelt drón használatánál?</t>
+  </si>
+  <si>
+    <t>A drónt csak jó időben, és a jogi szabályokat betartva lehet használni.</t>
+  </si>
+  <si>
+    <t>Harmadik féltől származó alkalmazások használata NEM megengedett.</t>
+  </si>
+  <si>
+    <t>A késedelmes visszahozatal plusz díjjal jár.</t>
+  </si>
+  <si>
+    <t>A bérlés előtt és visszahozatalkor a drónt közösen átnézzük és leteszteljük.</t>
+  </si>
+  <si>
+    <t>Minden bérlő által okozott kár a bérlőt terheli és levonásra kerül a kaució összegéből.</t>
+  </si>
+  <si>
+    <t>Adatbiztonsággal kapcsolatos kérdések esetén</t>
+  </si>
+  <si>
+    <t>A személyi igazolványról és lakcím kártyáról biztonsági okokból fotót készítünk, melyet a bérlés végén véglegesen törlünk.</t>
+  </si>
+  <si>
+    <t>MESTERSÉGES INTELLIGENICIA ASSZISZETS TELEPÍTÉSE, HASZNÁLATA</t>
+  </si>
+  <si>
+    <t>Mennyibe kerül egy AI asszisztens beüzemelése?</t>
+  </si>
+  <si>
+    <t>Milyen eszközök szükségesen a használatához?</t>
+  </si>
+  <si>
+    <t>Az AI asszisztens használatához szükséges egy WINDOWS rendszerű számítógép</t>
+  </si>
+  <si>
+    <t>Mennyi ideig tart a beüzemelés?</t>
+  </si>
+  <si>
+    <t>A beüzemelés távolról megoldható Teamviwer program segítségével néhány óra alatt telepíthető és a használata betanítható.</t>
+  </si>
+  <si>
+    <t>Milyen kérdésekre tud válaszolni?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bármilyen szöveges információval tanítható, úgy mintha egy szöveges vállalati rendszert, valamilyen kollégának el kell olvasni és meg kell érteni. </t>
+  </si>
+  <si>
+    <t>Milyen mailcím szükséges a használathoz?</t>
+  </si>
+  <si>
+    <t>Bármilyen email cím alkalmassá tehető a használatához.</t>
+  </si>
+  <si>
+    <t>Milyen gyorsan válaszol a kérdésekre?</t>
+  </si>
+  <si>
+    <t>A válaszokat néhány másodpercen belül megválaszolja.</t>
+  </si>
+  <si>
+    <t>GYERKEK INFORMATIKAI ROBOTIKAI PROGRAMOZÁSI OKTATÁSA</t>
+  </si>
+  <si>
+    <t>Ha gyerekek képzésével, a délutáni szakkörrel kapcsolatban tesznek fel kérdést akkor az alábbiak szerint  próbálj meg válaszolni.</t>
+  </si>
+  <si>
+    <t>Heti egy alkalommal egy órában foglalkozunk a gyerekekkel általában 16:00-17:00 között, hasonlóan bármilyen másik fajta szakkörnél</t>
+  </si>
+  <si>
+    <t>egyszerre max. 12 gyerekkel foglalkozunk</t>
+  </si>
+  <si>
+    <t>fiúk és lányok is járnak hozzánk 8-14 éves korosztályban</t>
+  </si>
+  <si>
+    <t>Informatikát elektronikát robotikát programozást, modern információs technológiákat oktatunk a gyerekeknek.</t>
+  </si>
+  <si>
+    <t>a Kockulj okosan szakkör</t>
   </si>
 </sst>
 </file>
@@ -390,12 +722,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
